--- a/data/metadata_context_variables.xlsx
+++ b/data/metadata_context_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\SWAN_projects\lhc-anomaly-detection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FED73BE-F1E1-471E-A2A1-702BBE8F7CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA0ED6-5E59-4C83-BBE7-3C1D861105F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41064" yWindow="6240" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="360">
   <si>
     <t>dtype</t>
   </si>
@@ -1094,13 +1094,19 @@
   </si>
   <si>
     <t>z_ApDiff_10000Hz</t>
+  </si>
+  <si>
+    <t>cryostat_group</t>
+  </si>
+  <si>
+    <t>QPS Crate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,6 +1118,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1149,9 +1161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1456,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:I282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2800,42 +2815,30 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>125</v>
+      <c r="A49" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="C49" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="G49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>4</v>
-      </c>
-      <c r="G50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
         <v>126</v>
@@ -2852,16 +2855,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
         <v>126</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2869,16 +2872,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>126</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2886,7 +2889,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
         <v>126</v>
@@ -2898,12 +2901,12 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
         <v>126</v>
@@ -2912,24 +2915,24 @@
         <v>1</v>
       </c>
       <c r="F55">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
         <v>126</v>
       </c>
       <c r="D56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>165</v>
+        <v>3</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2937,16 +2940,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
         <v>126</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2954,7 +2957,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
         <v>126</v>
@@ -2963,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2971,7 +2974,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
         <v>126</v>
@@ -2980,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>68</v>
+        <v>369</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2988,7 +2991,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
         <v>126</v>
@@ -2997,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -3005,7 +3008,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>126</v>
@@ -3014,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>294</v>
+        <v>68</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -3022,7 +3025,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
         <v>126</v>
@@ -3031,15 +3034,15 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="G62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>126</v>
@@ -3048,15 +3051,15 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" t="s">
         <v>126</v>
@@ -3065,15 +3068,15 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
         <v>126</v>
@@ -3082,15 +3085,15 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
         <v>126</v>
@@ -3099,15 +3102,15 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
         <v>126</v>
@@ -3116,15 +3119,15 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>115</v>
+        <v>191</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
         <v>126</v>
@@ -3133,15 +3136,15 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
         <v>126</v>
@@ -3150,15 +3153,15 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>271</v>
+        <v>115</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
         <v>126</v>
@@ -3167,15 +3170,15 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>108</v>
+        <v>264</v>
       </c>
       <c r="G70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
         <v>126</v>
@@ -3184,15 +3187,15 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>72</v>
+        <v>271</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C72" t="s">
         <v>126</v>
@@ -3201,15 +3204,15 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
         <v>126</v>
@@ -3218,15 +3221,15 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
         <v>126</v>
@@ -3235,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
         <v>126</v>
@@ -3252,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -3260,16 +3263,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
         <v>126</v>
       </c>
       <c r="D76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -3277,16 +3280,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
         <v>126</v>
       </c>
       <c r="D77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3294,16 +3297,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
         <v>126</v>
       </c>
       <c r="D78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>341</v>
+        <v>3</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -3311,16 +3314,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
         <v>126</v>
       </c>
       <c r="D79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>377</v>
+        <v>3</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3328,7 +3331,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
         <v>126</v>
@@ -3337,15 +3340,15 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
         <v>126</v>
@@ -3354,15 +3357,15 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>557</v>
+        <v>377</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
         <v>126</v>
@@ -3371,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>133</v>
+        <v>457</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -3379,7 +3382,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
         <v>126</v>
@@ -3388,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>159</v>
+        <v>557</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -3396,7 +3399,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
         <v>126</v>
@@ -3405,15 +3408,15 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
         <v>126</v>
@@ -3422,15 +3425,15 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>126</v>
@@ -3439,15 +3442,15 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>498</v>
+        <v>40</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
         <v>126</v>
@@ -3456,15 +3459,15 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
         <v>126</v>
@@ -3473,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>405</v>
+        <v>498</v>
       </c>
       <c r="G88">
         <v>3</v>
@@ -3481,7 +3484,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C89" t="s">
         <v>126</v>
@@ -3490,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>367</v>
+        <v>567</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -3498,7 +3501,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
         <v>126</v>
@@ -3507,15 +3510,15 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>189</v>
+        <v>405</v>
       </c>
       <c r="G90">
-        <v>526</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
         <v>126</v>
@@ -3524,15 +3527,15 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="G91">
-        <v>432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
         <v>126</v>
@@ -3541,15 +3544,15 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="G92">
-        <v>170</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
         <v>126</v>
@@ -3558,15 +3561,15 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="G93">
-        <v>173</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
         <v>126</v>
@@ -3575,15 +3578,15 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="G94">
-        <v>801</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
         <v>126</v>
@@ -3592,49 +3595,49 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="G95">
-        <v>802</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
         <v>126</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>801</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C97" t="s">
         <v>126</v>
       </c>
       <c r="D97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>802</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
         <v>126</v>
@@ -3643,15 +3646,15 @@
         <v>1</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C99" t="s">
         <v>126</v>
@@ -3660,15 +3663,15 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
         <v>126</v>
@@ -3677,15 +3680,15 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C101" t="s">
         <v>126</v>
@@ -3694,15 +3697,15 @@
         <v>1</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C102" t="s">
         <v>126</v>
@@ -3719,16 +3722,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
         <v>126</v>
       </c>
       <c r="D103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3736,16 +3739,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C104" t="s">
         <v>126</v>
       </c>
       <c r="D104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3753,16 +3756,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
         <v>126</v>
       </c>
       <c r="D105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3770,16 +3773,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
         <v>126</v>
       </c>
       <c r="D106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
         <v>126</v>
@@ -3796,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3804,16 +3807,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
         <v>126</v>
       </c>
       <c r="D108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3821,16 +3824,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C109" t="s">
         <v>126</v>
       </c>
       <c r="D109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3838,7 +3841,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C110" t="s">
         <v>126</v>
@@ -3847,15 +3850,15 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C111" t="s">
         <v>126</v>
@@ -3864,15 +3867,15 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C112" t="s">
         <v>126</v>
@@ -3881,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>260</v>
+        <v>4</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3889,7 +3892,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
         <v>126</v>
@@ -3898,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C114" t="s">
         <v>126</v>
@@ -3915,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>574</v>
+        <v>260</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3923,7 +3926,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C115" t="s">
         <v>126</v>
@@ -3932,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3940,7 +3943,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
         <v>126</v>
@@ -3949,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3957,7 +3960,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C117" t="s">
         <v>126</v>
@@ -3966,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3974,7 +3977,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C118" t="s">
         <v>126</v>
@@ -3983,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3991,7 +3994,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -4000,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4008,7 +4011,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
         <v>126</v>
@@ -4017,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4025,24 +4028,24 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C121" t="s">
         <v>126</v>
       </c>
       <c r="D121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>549</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
         <v>126</v>
@@ -4051,24 +4054,24 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>208</v>
+        <v>518</v>
       </c>
       <c r="G122">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C123" t="s">
         <v>126</v>
       </c>
       <c r="D123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="G123">
         <v>6</v>
@@ -4076,7 +4079,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C124" t="s">
         <v>126</v>
@@ -4085,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>28</v>
+        <v>208</v>
       </c>
       <c r="G124">
         <v>6</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
         <v>126</v>
@@ -4102,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G125">
         <v>6</v>
@@ -4110,7 +4113,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C126" t="s">
         <v>126</v>
@@ -4119,15 +4122,15 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G126">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C127" t="s">
         <v>126</v>
@@ -4136,15 +4139,15 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="G127">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
         <v>126</v>
@@ -4153,15 +4156,15 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G128">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C129" t="s">
         <v>126</v>
@@ -4170,15 +4173,15 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="G129">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
         <v>126</v>
@@ -4187,15 +4190,15 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C131" t="s">
         <v>126</v>
@@ -4204,15 +4207,15 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="G131">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C132" t="s">
         <v>126</v>
@@ -4221,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C133" t="s">
         <v>126</v>
@@ -4238,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>39</v>
+        <v>185</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -4246,7 +4249,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C134" t="s">
         <v>126</v>
@@ -4255,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -4263,7 +4266,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
         <v>126</v>
@@ -4272,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C136" t="s">
         <v>126</v>
@@ -4289,15 +4292,15 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="G136">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
         <v>126</v>
@@ -4306,15 +4309,15 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="G137">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C138" t="s">
         <v>126</v>
@@ -4323,15 +4326,15 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
         <v>126</v>
@@ -4340,15 +4343,15 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
         <v>126</v>
@@ -4357,15 +4360,15 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="G140">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C141" t="s">
         <v>126</v>
@@ -4374,15 +4377,15 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="G141">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C142" t="s">
         <v>126</v>
@@ -4391,15 +4394,15 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
         <v>126</v>
@@ -4408,15 +4411,15 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G143">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C144" t="s">
         <v>126</v>
@@ -4425,15 +4428,15 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="G144">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C145" t="s">
         <v>126</v>
@@ -4442,15 +4445,15 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="G145">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C146" t="s">
         <v>126</v>
@@ -4459,15 +4462,15 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C147" t="s">
         <v>126</v>
@@ -4476,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>11</v>
@@ -4484,7 +4487,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C148" t="s">
         <v>126</v>
@@ -4493,15 +4496,15 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G148">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
         <v>126</v>
@@ -4510,15 +4513,15 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G149">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C150" t="s">
         <v>126</v>
@@ -4527,15 +4530,15 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G150">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
         <v>126</v>
@@ -4544,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -4552,7 +4555,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C152" t="s">
         <v>126</v>
@@ -4561,15 +4564,15 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="G152">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C153" t="s">
         <v>126</v>
@@ -4578,15 +4581,15 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="G153">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C154" t="s">
         <v>126</v>
@@ -4595,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="G154">
         <v>12</v>
@@ -4603,7 +4606,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C155" t="s">
         <v>126</v>
@@ -4612,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="G155">
         <v>11</v>
@@ -4620,7 +4623,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
         <v>126</v>
@@ -4629,15 +4632,15 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G156">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C157" t="s">
         <v>126</v>
@@ -4646,15 +4649,15 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G157">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C158" t="s">
         <v>126</v>
@@ -4663,15 +4666,15 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G158">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C159" t="s">
         <v>126</v>
@@ -4680,15 +4683,15 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>261</v>
+        <v>33</v>
       </c>
       <c r="G159">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C160" t="s">
         <v>126</v>
@@ -4697,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="G160">
         <v>12</v>
@@ -4705,7 +4708,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C161" t="s">
         <v>126</v>
@@ -4714,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="G161">
         <v>11</v>
@@ -4722,7 +4725,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
         <v>126</v>
@@ -4731,15 +4734,15 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="G162">
-        <v>581</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C163" t="s">
         <v>126</v>
@@ -4748,15 +4751,15 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="G163">
-        <v>532</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C164" t="s">
         <v>126</v>
@@ -4765,15 +4768,15 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G164">
-        <v>295</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C165" t="s">
         <v>126</v>
@@ -4782,15 +4785,15 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="G165">
-        <v>352</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
         <v>126</v>
@@ -4799,15 +4802,15 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G166">
-        <v>808</v>
+        <v>295</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C167" t="s">
         <v>126</v>
@@ -4816,15 +4819,15 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G167">
-        <v>810</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C168" t="s">
         <v>126</v>
@@ -4833,15 +4836,15 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G168">
-        <v>12</v>
+        <v>808</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C169" t="s">
         <v>126</v>
@@ -4850,15 +4853,15 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G169">
-        <v>11</v>
+        <v>810</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C170" t="s">
         <v>126</v>
@@ -4867,15 +4870,15 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G170">
-        <v>328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C171" t="s">
         <v>126</v>
@@ -4884,15 +4887,15 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G171">
-        <v>696</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C172" t="s">
         <v>126</v>
@@ -4901,15 +4904,15 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="G172">
-        <v>10</v>
+        <v>328</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s">
         <v>126</v>
@@ -4918,15 +4921,15 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>696</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C174" t="s">
         <v>126</v>
@@ -4935,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="G174">
         <v>10</v>
@@ -4943,7 +4946,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C175" t="s">
         <v>126</v>
@@ -4952,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -4960,7 +4963,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C176" t="s">
         <v>126</v>
@@ -4969,15 +4972,15 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C177" t="s">
         <v>126</v>
@@ -4989,12 +4992,12 @@
         <v>1</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C178" t="s">
         <v>126</v>
@@ -5003,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -5011,7 +5014,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C179" t="s">
         <v>126</v>
@@ -5020,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -5028,7 +5031,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C180" t="s">
         <v>126</v>
@@ -5037,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>574</v>
+        <v>145</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -5045,7 +5048,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C181" t="s">
         <v>126</v>
@@ -5054,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5062,7 +5065,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C182" t="s">
         <v>126</v>
@@ -5071,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5079,7 +5082,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C183" t="s">
         <v>126</v>
@@ -5088,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -5096,7 +5099,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C184" t="s">
         <v>126</v>
@@ -5105,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5113,7 +5116,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C185" t="s">
         <v>126</v>
@@ -5122,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5130,7 +5133,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C186" t="s">
         <v>126</v>
@@ -5139,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>393</v>
+        <v>562</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5147,7 +5150,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C187" t="s">
         <v>126</v>
@@ -5156,15 +5159,15 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>242</v>
+        <v>515</v>
       </c>
       <c r="G187">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C188" t="s">
         <v>126</v>
@@ -5173,15 +5176,15 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="G188">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C189" t="s">
         <v>126</v>
@@ -5190,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="G189">
         <v>15</v>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C190" t="s">
         <v>126</v>
@@ -5207,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="G190">
         <v>15</v>
@@ -5215,7 +5218,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C191" t="s">
         <v>126</v>
@@ -5224,15 +5227,15 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="G191">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C192" t="s">
         <v>126</v>
@@ -5241,15 +5244,15 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="G192">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C193" t="s">
         <v>126</v>
@@ -5258,15 +5261,15 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G193">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
         <v>126</v>
@@ -5275,15 +5278,15 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G194">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C195" t="s">
         <v>126</v>
@@ -5292,15 +5295,15 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>368</v>
+        <v>72</v>
       </c>
       <c r="G195">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C196" t="s">
         <v>126</v>
@@ -5309,15 +5312,15 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>368</v>
+        <v>73</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C197" t="s">
         <v>126</v>
@@ -5326,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5334,7 +5337,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C198" t="s">
         <v>126</v>
@@ -5343,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5351,7 +5354,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C199" t="s">
         <v>126</v>
@@ -5360,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>326</v>
+        <v>220</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5368,7 +5371,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
         <v>126</v>
@@ -5377,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>326</v>
+        <v>98</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5385,7 +5388,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C201" t="s">
         <v>126</v>
@@ -5394,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>240</v>
+        <v>326</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -5402,7 +5405,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C202" t="s">
         <v>126</v>
@@ -5411,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -5419,7 +5422,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s">
         <v>126</v>
@@ -5428,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>341</v>
+        <v>240</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -5436,7 +5439,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C204" t="s">
         <v>126</v>
@@ -5445,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -5453,7 +5456,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C205" t="s">
         <v>126</v>
@@ -5462,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -5470,7 +5473,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C206" t="s">
         <v>126</v>
@@ -5479,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>286</v>
+        <v>341</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -5487,7 +5490,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C207" t="s">
         <v>126</v>
@@ -5496,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G207">
         <v>0</v>
@@ -5504,7 +5507,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C208" t="s">
         <v>126</v>
@@ -5513,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C209" t="s">
         <v>126</v>
@@ -5530,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>264</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C210" t="s">
         <v>126</v>
@@ -5547,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -5555,7 +5558,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C211" t="s">
         <v>126</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C212" t="s">
         <v>126</v>
@@ -5589,7 +5592,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C213" t="s">
         <v>126</v>
@@ -5606,7 +5609,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C214" t="s">
         <v>126</v>
@@ -5615,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -5623,7 +5626,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C215" t="s">
         <v>126</v>
@@ -5632,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -5640,7 +5643,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C216" t="s">
         <v>126</v>
@@ -5649,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -5657,7 +5660,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C217" t="s">
         <v>126</v>
@@ -5666,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C218" t="s">
         <v>126</v>
@@ -5683,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -5691,7 +5694,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C219" t="s">
         <v>126</v>
@@ -5700,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -5708,7 +5711,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C220" t="s">
         <v>126</v>
@@ -5717,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -5725,7 +5728,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C221" t="s">
         <v>126</v>
@@ -5734,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -5742,7 +5745,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C222" t="s">
         <v>126</v>
@@ -5751,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -5759,7 +5762,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C223" t="s">
         <v>126</v>
@@ -5776,7 +5779,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C224" t="s">
         <v>126</v>
@@ -5785,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C225" t="s">
         <v>126</v>
@@ -5802,15 +5805,15 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="G225">
-        <v>703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C226" t="s">
         <v>126</v>
@@ -5819,15 +5822,15 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G226">
-        <v>703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C227" t="s">
         <v>126</v>
@@ -5844,7 +5847,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C228" t="s">
         <v>126</v>
@@ -5861,7 +5864,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C229" t="s">
         <v>126</v>
@@ -5878,7 +5881,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C230" t="s">
         <v>126</v>
@@ -5895,7 +5898,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C231" t="s">
         <v>126</v>
@@ -5912,7 +5915,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C232" t="s">
         <v>126</v>
@@ -5929,7 +5932,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C233" t="s">
         <v>126</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C234" t="s">
         <v>126</v>
@@ -5963,7 +5966,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C235" t="s">
         <v>126</v>
@@ -5980,7 +5983,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C236" t="s">
         <v>126</v>
@@ -5997,7 +6000,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C237" t="s">
         <v>126</v>
@@ -6014,7 +6017,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C238" t="s">
         <v>126</v>
@@ -6031,7 +6034,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C239" t="s">
         <v>126</v>
@@ -6048,7 +6051,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C240" t="s">
         <v>126</v>
@@ -6065,7 +6068,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C241" t="s">
         <v>126</v>
@@ -6074,15 +6077,15 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G241">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C242" t="s">
         <v>126</v>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C243" t="s">
         <v>126</v>
@@ -6108,15 +6111,15 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G243">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C244" t="s">
         <v>126</v>
@@ -6133,7 +6136,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C245" t="s">
         <v>126</v>
@@ -6150,7 +6153,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C246" t="s">
         <v>126</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C247" t="s">
         <v>126</v>
@@ -6184,7 +6187,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C248" t="s">
         <v>126</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C249" t="s">
         <v>126</v>
@@ -6210,15 +6213,15 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G249">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C250" t="s">
         <v>126</v>
@@ -6235,7 +6238,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C251" t="s">
         <v>126</v>
@@ -6244,15 +6247,15 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G251">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C252" t="s">
         <v>126</v>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C253" t="s">
         <v>126</v>
@@ -6286,7 +6289,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C254" t="s">
         <v>126</v>
@@ -6303,7 +6306,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C255" t="s">
         <v>126</v>
@@ -6320,7 +6323,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C256" t="s">
         <v>126</v>
@@ -6337,7 +6340,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C257" t="s">
         <v>126</v>
@@ -6346,15 +6349,15 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G257">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C258" t="s">
         <v>126</v>
@@ -6371,7 +6374,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C259" t="s">
         <v>126</v>
@@ -6380,15 +6383,15 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G259">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C260" t="s">
         <v>126</v>
@@ -6405,7 +6408,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C261" t="s">
         <v>126</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C262" t="s">
         <v>126</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C263" t="s">
         <v>126</v>
@@ -6456,7 +6459,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C264" t="s">
         <v>126</v>
@@ -6473,7 +6476,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C265" t="s">
         <v>126</v>
@@ -6482,15 +6485,15 @@
         <v>0</v>
       </c>
       <c r="F265">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G265">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C266" t="s">
         <v>126</v>
@@ -6507,7 +6510,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C267" t="s">
         <v>126</v>
@@ -6516,15 +6519,15 @@
         <v>0</v>
       </c>
       <c r="F267">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G267">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C268" t="s">
         <v>126</v>
@@ -6541,7 +6544,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C269" t="s">
         <v>126</v>
@@ -6558,7 +6561,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C270" t="s">
         <v>126</v>
@@ -6575,7 +6578,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C271" t="s">
         <v>126</v>
@@ -6592,7 +6595,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C272" t="s">
         <v>126</v>
@@ -6609,7 +6612,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C273" t="s">
         <v>126</v>
@@ -6618,15 +6621,15 @@
         <v>0</v>
       </c>
       <c r="F273">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G273">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C274" t="s">
         <v>126</v>
@@ -6643,7 +6646,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C275" t="s">
         <v>126</v>
@@ -6652,15 +6655,15 @@
         <v>0</v>
       </c>
       <c r="F275">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G275">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C276" t="s">
         <v>126</v>
@@ -6677,7 +6680,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C277" t="s">
         <v>126</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C278" t="s">
         <v>126</v>
@@ -6711,7 +6714,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C279" t="s">
         <v>126</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C280" t="s">
         <v>126</v>
@@ -6740,6 +6743,40 @@
         <v>82</v>
       </c>
       <c r="G280">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C281" t="s">
+        <v>126</v>
+      </c>
+      <c r="D281" t="b">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>82</v>
+      </c>
+      <c r="G281">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C282" t="s">
+        <v>126</v>
+      </c>
+      <c r="D282" t="b">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>82</v>
+      </c>
+      <c r="G282">
         <v>703</v>
       </c>
     </row>
